--- a/Data/CLUSTER ANALYSIS AND PCA.xlsx
+++ b/Data/CLUSTER ANALYSIS AND PCA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>S/N</t>
   </si>
@@ -152,9 +152,6 @@
     <t>0-A-S corm 36</t>
   </si>
   <si>
-    <t>14,04</t>
-  </si>
-  <si>
     <t>0-A-S corm 37</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
   </si>
   <si>
     <t>ANALYSIS TO BE PERFORMED: CLUSTER ANALYSIS( DENDOGRAM) AND PCA</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
@@ -555,21 +549,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -663,7 +659,7 @@
         <v>34.14</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -710,7 +706,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -757,7 +753,7 @@
         <v>38.56</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -804,7 +800,7 @@
         <v>35.85</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -851,7 +847,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -897,11 +893,8 @@
       <c r="O8" s="3">
         <v>34.06</v>
       </c>
-      <c r="R8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -948,7 +941,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -995,7 +988,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1042,7 +1035,7 @@
         <v>37.56</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1089,7 +1082,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1136,7 +1129,7 @@
         <v>37.94</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1183,7 +1176,7 @@
         <v>34.26</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1881,8 +1874,8 @@
       <c r="M29" s="3">
         <v>10</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>42</v>
+      <c r="N29" s="3">
+        <v>14.04</v>
       </c>
       <c r="O29" s="3">
         <v>39.25</v>
@@ -1893,7 +1886,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5">
         <v>33.1</v>
@@ -1940,7 +1933,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5">
         <v>17.25</v>
@@ -1987,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5">
         <v>22.25</v>
